--- a/DCFLFINANCE/Data/Config.xlsx
+++ b/DCFLFINANCE/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLCBIT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52BA090-4F7E-48C0-B4BF-912704C9C9F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -122,6 +122,55 @@
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Qasdf12345</t>
+  </si>
+  <si>
+    <t>Cbit_url</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://leasing.cbit.com.cn/</t>
+  </si>
+  <si>
+    <t>dcflUsername</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://10.40.128.177:7001/core/login</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dcflUrl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://10.40.128.182:8080/core/login</t>
+  </si>
+  <si>
+    <t>dcflUrlTest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dcfl.tax</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123qwer@</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dcflPassword</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -139,6 +188,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -173,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -183,9 +233,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -201,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,16 +550,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -557,7 +608,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -568,13 +619,62 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>1100000229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1574,12 +1674,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1616,7 +1716,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2682,16 +2782,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/DCFLFINANCE/Data/Config.xlsx
+++ b/DCFLFINANCE/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLCBIT\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLFINANCE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52BA090-4F7E-48C0-B4BF-912704C9C9F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B1C311-DD45-45EC-80F6-F8B8F09DE2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -165,11 +165,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>123qwer@</t>
+    <t>dcflPassword</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>dcflPassword</t>
+    <t>987654321qwer@</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -551,7 +551,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -653,10 +653,10 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">

--- a/DCFLFINANCE/Data/Config.xlsx
+++ b/DCFLFINANCE/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLFINANCE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B1C311-DD45-45EC-80F6-F8B8F09DE2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E1D12D-FEA6-41A7-9C3F-1EE0F02413A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>987654321qwer@</t>
+    <t>0123456789qwer@</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -202,6 +202,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,10 +227,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -234,9 +242,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,7 +561,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -655,7 +665,7 @@
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1663,8 +1673,11 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{359209B1-B7C2-4325-8F07-8E1D6E6804DA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/DCFLFINANCE/Data/Config.xlsx
+++ b/DCFLFINANCE/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DCFLFINANCE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E1D12D-FEA6-41A7-9C3F-1EE0F02413A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D448F37-E1F0-433D-B6AF-319DF989E8FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -202,13 +202,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,11 +220,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -242,11 +234,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,7 +551,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -665,7 +655,7 @@
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1673,11 +1663,8 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{359209B1-B7C2-4325-8F07-8E1D6E6804DA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
